--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_residual_mean_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_residual_mean_kernel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="residual_mean_sr_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="residual_mean_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,16 +468,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.33333333333334</v>
+        <v>96.19469026548673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.161834050618927</v>
+        <v>0.101598633704513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9619469026548673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9295222745545837</v>
+        <v>0.9616518948744579</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +487,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.19000164361283</v>
+        <v>92.97935103244838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2328266290103504</v>
+        <v>0.2453633680604819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9419000164361284</v>
+        <v>0.9297935103244838</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9398359369487626</v>
+        <v>0.9247292600484638</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +506,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.16241489978287</v>
+        <v>95.75255841313506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.174221843227618</v>
+        <v>0.1482895088453006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9516241489978287</v>
+        <v>0.9575255841313506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.949022955834667</v>
+        <v>0.9566441458918152</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +525,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.06576181454857</v>
+        <v>89.85250737463127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226160440868019</v>
+        <v>0.305092329425194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9206576181454856</v>
+        <v>0.8985250737463127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9141810221104896</v>
+        <v>0.8829323745935371</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +544,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.85474787844186</v>
+        <v>79.76695300132354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5173802183514151</v>
+        <v>0.4525816714313501</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7885474787844186</v>
+        <v>0.7976695300132354</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7676220323540168</v>
+        <v>0.7808342508594144</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +563,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.32758933900813</v>
+        <v>89.41124058166592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3131474430478799</v>
+        <v>0.273296802630648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8932758933900813</v>
+        <v>0.8941124058166594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.878326651577957</v>
+        <v>0.8864243567124621</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.64896755162242</v>
+        <v>89.35103244837758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2491777016761868</v>
+        <v>0.2814217948597312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9064896755162242</v>
+        <v>0.8935103244837759</v>
       </c>
       <c r="E8" t="n">
-        <v>0.905117091784267</v>
+        <v>0.8921619233676864</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +601,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.59031652522945</v>
+        <v>92.24188790560473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220549533933081</v>
+        <v>0.1987686298412882</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9059031652522945</v>
+        <v>0.9224188790560472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9044241913725639</v>
+        <v>0.9190375073916242</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +620,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.12389380530973</v>
+        <v>89.76401179941003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2128285952251948</v>
+        <v>0.2883457698718606</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9212389380530974</v>
+        <v>0.8976401179941004</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9201812792761264</v>
+        <v>0.89468081845902</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +639,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.06211991453213</v>
+        <v>87.93510324483775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2424952540891051</v>
+        <v>0.2908623482699113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9106211991453212</v>
+        <v>0.8793510324483776</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9068389056765257</v>
+        <v>0.8726761804382754</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +658,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.1268436578171</v>
+        <v>81.09144542772862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5635558111789578</v>
+        <v>0.5896748422890898</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8312684365781712</v>
+        <v>0.8109144542772861</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8217022486050987</v>
+        <v>0.8095301747493618</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +677,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.83775811209441</v>
+        <v>84.86725663716814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.566815193987956</v>
+        <v>0.5576129890654556</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8483775811209439</v>
+        <v>0.8486725663716814</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8319709246192071</v>
+        <v>0.8344633385661335</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +696,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.61356932153392</v>
+        <v>99.02654867256638</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05423015088913417</v>
+        <v>0.03853957102185319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9861356932153391</v>
+        <v>0.9902654867256636</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9859831494619808</v>
+        <v>0.990251879364045</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +715,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.38053097345133</v>
+        <v>99.61669218591857</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01465963202642134</v>
+        <v>0.01188181339833108</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9938053097345133</v>
+        <v>0.9961669218591857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9938436587116295</v>
+        <v>0.9961825178806526</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +734,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.78466076696165</v>
+        <v>95.16224188790559</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07864535667852859</v>
+        <v>0.115570160933252</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9678466076696164</v>
+        <v>0.9516224188790561</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9671970053163571</v>
+        <v>0.949301225502742</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +753,366 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.34016730248533</v>
+        <v>90.86756805854721</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255235190320585</v>
+        <v>0.2599266822432174</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9134016730248532</v>
+        <v>0.9086756805854722</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9077179552136158</v>
+        <v>0.9034334565799795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.00069204750906</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2810364023879325</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9000069204750906</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8964767913176356</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.72405470635559</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.511812952979623</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8072405470635559</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7902606818298625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.92173807731902</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1940093907527626</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92921738077319</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9278215882463068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.14245797974031</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3598390304405863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8814245797974032</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.870866624395504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>71.18997569183125</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8218821205800243</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7118997569183124</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6920979398063183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.99252588690214</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4653293662859748</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8599252588690213</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8440532239075698</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.73363956435608</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2844074522765974</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8873363956435609</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8815094151789026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.9972231593699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2655228600294018</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8899722315936989</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.889321719034338</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.31996816581459</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2991777970572002</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8831996816581459</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8831997021885482</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.30434519329751</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4418672483462918</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8230434519329751</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8104547806733707</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.14731096289761</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7536562530020698</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.791473109628976</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.783370866705519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.80473014472443</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6673580232619619</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7680473014472444</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7614422763516764</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.74926253687315</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1263478489221598</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9474926253687315</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9461860931307106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.28318584070796</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09251682656646759</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9628318584070797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9625372314765872</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1642490063717394</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9374631268436578</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9350497701928818</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.53716150947096</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3819341719507196</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8653716150947097</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8583099136290487</v>
       </c>
     </row>
   </sheetData>
